--- a/test-data/10월_용역자명단_간단.xlsx
+++ b/test-data/10월_용역자명단_간단.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>010-6001-0001</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-6002-0002</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-6003-0003</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-6004-0004</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-6005-0005</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-6006-0006</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>010-6007-0007</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>최민수2</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>010-6008-0008</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>010-6009-0009</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>010-6010-0010</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>010-6011-0011</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>010-6012-0012</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>010-6013-0013</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>010-6014-0014</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>최민수3</t>
+          <t>최민수2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>010-6015-0015</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>최민수2</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>010-6016-0016</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>010-6017-0017</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>010-6018-0018</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>010-6019-0019</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>010-6020-0020</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>안정환2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>010-6021-0021</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>최민수4</t>
+          <t>안정환2</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>010-6022-0022</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>010-6023-0023</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -2320,12 +2320,12 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>010-6024-0024</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>전지현2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>010-6025-0025</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>010-6026-0026</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>010-6027-0027</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2620,12 +2620,12 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>010-6028-0028</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>최민수5</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>010-6029-0029</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>010-6030-0030</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>010-6031-0031</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>010-6032-0032</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>류현진3</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>010-6033-0033</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -3070,12 +3070,12 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>류현진3</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>010-6034-0034</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -3145,12 +3145,12 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>안정환3</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>010-6035-0035</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>최민수6</t>
+          <t>안정환3</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>010-6036-0036</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>배용준3</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>010-6037-0037</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>배용준3</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>010-6038-0038</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>010-6039-0039</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>010-6040-0040</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영3</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>010-6041-0041</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -3670,12 +3670,12 @@
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>고소영3</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>010-6042-0042</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>최민수7</t>
+          <t>최민수4</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>010-6043-0043</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>최민수4</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>010-6044-0044</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>송가인4</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인4</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>010-6001-0001</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -4045,12 +4045,12 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진4</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>010-6002-0002</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>류현진4</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>010-6003-0003</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>안정환4</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>010-6004-0004</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -4270,12 +4270,12 @@
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>안정환4</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>010-6005-0005</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>010-6006-0006</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -4420,12 +4420,12 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>010-6007-0007</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>최민수2</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>010-6008-0008</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>010-6009-0009</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -4645,12 +4645,12 @@
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>010-6010-0010</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
@@ -4720,12 +4720,12 @@
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>010-6011-0011</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>최민수5</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>010-6012-0012</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>최민수5</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>010-6013-0013</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -4945,12 +4945,12 @@
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>송가인5</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>010-6014-0014</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -5020,12 +5020,12 @@
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>최민수3</t>
+          <t>송가인5</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>010-6015-0015</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -5095,12 +5095,12 @@
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>010-6016-0016</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>010-6017-0017</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -5245,12 +5245,12 @@
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>010-6018-0018</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>010-6019-0019</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -5395,12 +5395,12 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>배용준5</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>010-6020-0020</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -5470,12 +5470,12 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>배용준5</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>010-6021-0021</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>최민수4</t>
+          <t>전지현5</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>010-6022-0022</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>전지현5</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>010-6023-0023</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>고소영5</t>
         </is>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>010-6024-0024</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>고소영5</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>010-6025-0025</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -5845,12 +5845,12 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>최민수6</t>
         </is>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>010-6026-0026</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>최민수6</t>
         </is>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>010-6027-0027</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>송가인6</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>010-6028-0028</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -6070,12 +6070,12 @@
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>최민수5</t>
+          <t>송가인6</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>010-6029-0029</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진6</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>010-6030-0030</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>류현진6</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>010-6031-0031</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>안정환6</t>
         </is>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>010-6032-0032</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K79" s="2" t="inlineStr">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>안정환6</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>010-6033-0033</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
@@ -6445,12 +6445,12 @@
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>배용준6</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>010-6034-0034</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
@@ -6520,12 +6520,12 @@
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>배용준6</t>
         </is>
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>010-6035-0035</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>최민수6</t>
+          <t>전지현6</t>
         </is>
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>010-6036-0036</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
@@ -6670,12 +6670,12 @@
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>전지현6</t>
         </is>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>010-6037-0037</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -6745,12 +6745,12 @@
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>고소영6</t>
         </is>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>010-6038-0038</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -6820,12 +6820,12 @@
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>고소영6</t>
         </is>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>010-6039-0039</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>최민수7</t>
         </is>
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>010-6040-0040</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>최민수7</t>
         </is>
       </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>010-6041-0041</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>송가인7</t>
         </is>
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>010-6042-0042</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
@@ -7120,12 +7120,12 @@
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>최민수7</t>
+          <t>송가인7</t>
         </is>
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>010-6043-0043</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진7</t>
         </is>
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>010-6044-0044</t>
+          <t>010-6045-0045</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>류현진7</t>
         </is>
       </c>
       <c r="J92" s="2" t="inlineStr">

--- a/test-data/10월_용역자명단_간단.xlsx
+++ b/test-data/10월_용역자명단_간단.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,9 +554,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>김민재</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>김민재</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>850101-1234567</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>700-800-900000</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>최민수</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>김설계</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,32 +640,32 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>oct001</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>010-7001-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>850101-1234567</t>
+          <t>860202-2234567</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>700-800-900000</t>
+          <t>701-801-900001</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -600,17 +675,17 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>010-9100-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -631,7 +706,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -640,52 +715,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>oct002</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>010-7002-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>860202-2234567</t>
+          <t>870303-1234567</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>701-801-900001</t>
+          <t>702-802-900002</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>송가인</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>010-9101-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -706,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -715,32 +790,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>oct003</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>010-7003-0003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>870303-1234567</t>
+          <t>880404-2234567</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>702-802-900002</t>
+          <t>703-803-900003</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -750,17 +825,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>010-9102-0003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -781,7 +856,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -790,52 +865,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>oct004</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>010-7004-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>880404-2234567</t>
+          <t>890505-1234567</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>703-803-900003</t>
+          <t>704-804-900004</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>류현진</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>010-9103-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -856,7 +931,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -865,32 +940,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>oct005</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>010-7005-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>890505-1234567</t>
+          <t>900606-2234567</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>704-804-900004</t>
+          <t>705-805-900005</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +975,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>010-9104-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
@@ -931,7 +1006,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -940,52 +1015,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>oct006</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>010-7006-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>900606-2234567</t>
+          <t>910707-1234567</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>705-805-900005</t>
+          <t>706-806-900006</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>010-9105-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
@@ -1006,7 +1081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -1015,32 +1090,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>oct007</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>010-7007-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>910707-1234567</t>
+          <t>920808-2234567</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>706-806-900006</t>
+          <t>707-807-900007</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1050,17 +1125,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>010-9106-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
@@ -1081,7 +1156,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -1090,52 +1165,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>oct008</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>010-7008-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>920808-2234567</t>
+          <t>930909-1234567</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>707-807-900007</t>
+          <t>708-808-900008</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>안정환</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>010-9107-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
@@ -1156,7 +1231,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -1165,32 +1240,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>oct009</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>010-7009-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>930909-1234567</t>
+          <t>941010-2234567</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>708-808-900008</t>
+          <t>709-809-900009</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1200,17 +1275,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>010-9108-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
@@ -1231,7 +1306,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -1240,52 +1315,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>oct010</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>010-7010-0010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>941010-2234567</t>
+          <t>951111-1234567</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>709-809-900009</t>
+          <t>710-810-900010</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>배용준</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>010-9109-0010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
@@ -1306,7 +1381,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -1315,32 +1390,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>oct011</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>010-7011-0011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>951111-1234567</t>
+          <t>961212-2234567</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>710-810-900010</t>
+          <t>711-811-900011</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1350,17 +1425,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>010-9110-0011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
@@ -1381,7 +1456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -1390,52 +1465,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>oct012</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>010-7012-0012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>961212-2234567</t>
+          <t>970113-1234567</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>711-811-900011</t>
+          <t>712-812-900012</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>전지현</t>
+          <t>고소영</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>010-9111-0012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
@@ -1456,7 +1531,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -1465,32 +1540,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>oct013</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>010-7013-0013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>970113-1234567</t>
+          <t>980214-2234567</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>712-812-900012</t>
+          <t>713-813-900013</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1500,17 +1575,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>010-9112-0013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
@@ -1531,7 +1606,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1540,52 +1615,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>oct014</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>010-7014-0014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>980214-2234567</t>
+          <t>990315-1234567</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>713-813-900013</t>
+          <t>714-814-900014</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>최민수2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>010-9113-0014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr">
@@ -1606,7 +1681,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1615,32 +1690,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>oct015</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>010-7015-0015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>990315-1234567</t>
+          <t>850416-2234567</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>714-814-900014</t>
+          <t>715-815-900015</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1650,17 +1725,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>010-9114-0015</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
@@ -1681,7 +1756,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -1690,52 +1765,52 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>oct016</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>010-7016-0016</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>850416-2234567</t>
+          <t>860517-1234567</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>715-815-900015</t>
+          <t>716-816-900016</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>최민수2</t>
+          <t>송가인2</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>010-9115-0016</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr">
@@ -1756,7 +1831,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1765,32 +1840,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>oct017</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>010-7017-0017</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>860517-1234567</t>
+          <t>870618-2234567</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>716-816-900016</t>
+          <t>717-817-900017</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1800,17 +1875,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>010-9116-0017</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M19" s="3" t="inlineStr">
@@ -1831,7 +1906,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -1840,52 +1915,52 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>oct018</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>010-7018-0018</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>870618-2234567</t>
+          <t>880719-1234567</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>717-817-900017</t>
+          <t>718-818-900018</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>송가인2</t>
+          <t>류현진2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>010-9117-0018</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr">
@@ -1906,7 +1981,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -1915,32 +1990,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>oct019</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>010-7019-0019</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>880719-1234567</t>
+          <t>890820-2234567</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>718-818-900018</t>
+          <t>719-819-900019</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1950,17 +2025,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>010-9118-0019</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
@@ -1981,7 +2056,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -1990,52 +2065,52 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>oct020</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>010-7020-0020</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>890820-2234567</t>
+          <t>900921-1234567</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>719-819-900019</t>
+          <t>720-820-900020</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>류현진2</t>
+          <t>안정환2</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>010-9119-0020</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr">
@@ -2056,7 +2131,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -2065,32 +2140,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>oct021</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>010-7021-0021</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>900921-1234567</t>
+          <t>911022-2234567</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>720-820-900020</t>
+          <t>721-821-900021</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -2100,17 +2175,17 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>010-9120-0021</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M23" s="3" t="inlineStr">
@@ -2131,7 +2206,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -2140,52 +2215,52 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>oct022</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민3</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>010-7022-0022</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>911022-2234567</t>
+          <t>921123-1234567</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>721-821-900021</t>
+          <t>722-822-900022</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>안정환2</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>010-9121-0022</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr">
@@ -2206,7 +2281,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -2215,32 +2290,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>oct023</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>010-7023-0023</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>921123-1234567</t>
+          <t>931224-2234567</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>722-822-900022</t>
+          <t>723-823-900023</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -2250,17 +2325,17 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>010-9122-0023</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M25" s="3" t="inlineStr">
@@ -2281,7 +2356,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -2290,52 +2365,52 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>oct024</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성3</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>010-7024-0024</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>931224-2234567</t>
+          <t>940125-1234567</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>723-823-900023</t>
+          <t>724-824-900024</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>배용준2</t>
+          <t>전지현2</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>010-9123-0024</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr">
@@ -2356,7 +2431,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -2365,32 +2440,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>oct025</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>010-7025-0025</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>940125-1234567</t>
+          <t>950226-2234567</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>724-824-900024</t>
+          <t>725-825-900025</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2400,17 +2475,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>010-9124-0025</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M27" s="3" t="inlineStr">
@@ -2431,7 +2506,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -2440,52 +2515,52 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>oct026</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>010-7026-0026</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>950226-2234567</t>
+          <t>960327-1234567</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>725-825-900025</t>
+          <t>726-826-900026</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>전지현2</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>010-9125-0026</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr">
@@ -2506,7 +2581,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -2515,32 +2590,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>oct027</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>010-7027-0027</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>960327-1234567</t>
+          <t>970428-2234567</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>726-826-900026</t>
+          <t>727-827-900027</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2550,17 +2625,17 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>010-9126-0027</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr">
@@ -2581,7 +2656,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
@@ -2590,52 +2665,52 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>oct028</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규3</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>010-7028-0028</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>970428-2234567</t>
+          <t>980501-1234567</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>727-827-900027</t>
+          <t>728-828-900028</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>고소영2</t>
+          <t>최민수3</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>010-9127-0028</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr">
@@ -2656,7 +2731,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
@@ -2665,32 +2740,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>oct029</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>010-7029-0029</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>980501-1234567</t>
+          <t>990602-2234567</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>728-828-900028</t>
+          <t>729-829-900029</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2700,17 +2775,17 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>010-9128-0029</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M31" s="3" t="inlineStr">
@@ -2731,7 +2806,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
@@ -2740,52 +2815,52 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>oct030</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재4</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>010-7030-0030</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>990602-2234567</t>
+          <t>850703-1234567</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>729-829-900029</t>
+          <t>730-830-900030</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>최민수3</t>
+          <t>송가인3</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>010-9129-0030</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr">
@@ -2806,7 +2881,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
@@ -2815,32 +2890,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>oct031</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>010-7031-0031</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>850703-1234567</t>
+          <t>860804-2234567</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>730-830-900030</t>
+          <t>731-831-900031</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2850,17 +2925,17 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>010-9130-0031</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
@@ -2881,7 +2956,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
@@ -2890,52 +2965,52 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>oct032</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민4</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>010-7032-0032</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>860804-2234567</t>
+          <t>870905-1234567</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>731-831-900031</t>
+          <t>732-832-900032</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>송가인3</t>
+          <t>류현진3</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>010-9131-0032</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M34" s="3" t="inlineStr">
@@ -2956,7 +3031,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
@@ -2965,32 +3040,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>oct033</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬4</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>010-7033-0033</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>870905-1234567</t>
+          <t>881006-2234567</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>732-832-900032</t>
+          <t>733-833-900033</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -3000,17 +3075,17 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>010-9132-0033</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M35" s="3" t="inlineStr">
@@ -3031,7 +3106,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
@@ -3040,52 +3115,52 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>oct034</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성4</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>010-7034-0034</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>881006-2234567</t>
+          <t>891107-1234567</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>733-833-900033</t>
+          <t>734-834-900034</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>류현진3</t>
+          <t>안정환3</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>010-9133-0034</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M36" s="3" t="inlineStr">
@@ -3106,7 +3181,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
@@ -3115,32 +3190,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>oct035</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>010-7035-0035</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>891107-1234567</t>
+          <t>901208-2234567</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>734-834-900034</t>
+          <t>735-835-900035</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -3150,17 +3225,17 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>010-9134-0035</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M37" s="3" t="inlineStr">
@@ -3181,7 +3256,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -3190,52 +3265,52 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>oct036</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권4</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>010-7036-0036</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>901208-2234567</t>
+          <t>910109-1234567</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>735-835-900035</t>
+          <t>736-836-900036</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>안정환3</t>
+          <t>배용준3</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>010-9135-0036</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M38" s="3" t="inlineStr">
@@ -3256,7 +3331,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
@@ -3265,32 +3340,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>oct037</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우4</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>010-7037-0037</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>910109-1234567</t>
+          <t>920210-2234567</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>736-836-900036</t>
+          <t>737-837-900037</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -3300,17 +3375,17 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>010-9136-0037</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M39" s="3" t="inlineStr">
@@ -3331,7 +3406,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
@@ -3340,52 +3415,52 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>oct038</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규4</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>010-7038-0038</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>920210-2234567</t>
+          <t>930311-1234567</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>737-837-900037</t>
+          <t>738-838-900038</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>배용준3</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>010-9137-0038</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M40" s="3" t="inlineStr">
@@ -3406,7 +3481,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
@@ -3415,32 +3490,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>oct039</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철4</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>010-7039-0039</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>930311-1234567</t>
+          <t>940412-2234567</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>738-838-900038</t>
+          <t>739-839-900039</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -3450,17 +3525,17 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>010-9138-0039</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M41" s="3" t="inlineStr">
@@ -3481,7 +3556,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
@@ -3490,52 +3565,52 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>oct040</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재5</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>010-7040-0040</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>940412-2234567</t>
+          <t>950513-1234567</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>739-839-900039</t>
+          <t>740-840-900040</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>전지현3</t>
+          <t>고소영3</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>010-9139-0040</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M42" s="3" t="inlineStr">
@@ -3556,7 +3631,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
@@ -3565,32 +3640,32 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>oct041</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인5</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>010-7041-0041</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>950513-1234567</t>
+          <t>960614-2234567</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>740-840-900040</t>
+          <t>741-841-900041</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -3600,17 +3675,17 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>010-9140-0041</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M43" s="3" t="inlineStr">
@@ -3631,7 +3706,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
@@ -3640,52 +3715,52 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>oct042</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민5</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>010-7042-0042</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>960614-2234567</t>
+          <t>970715-1234567</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>741-841-900041</t>
+          <t>742-842-900042</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>고소영3</t>
+          <t>최민수4</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>010-9141-0042</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M44" s="3" t="inlineStr">
@@ -3706,7 +3781,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
@@ -3715,32 +3790,32 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>oct043</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬5</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>010-7043-0043</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>970715-1234567</t>
+          <t>980816-2234567</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>742-842-900042</t>
+          <t>743-843-900043</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -3750,17 +3825,17 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>010-9142-0043</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M45" s="3" t="inlineStr">
@@ -3781,7 +3856,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
@@ -3790,52 +3865,52 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>oct044</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성5</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>010-7044-0044</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>980816-2234567</t>
+          <t>990917-1234567</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>743-843-900043</t>
+          <t>744-844-900044</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>최민수4</t>
+          <t>송가인4</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>010-9143-0044</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M46" s="3" t="inlineStr">
@@ -3856,7 +3931,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
@@ -3865,32 +3940,32 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>oct045</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범5</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>010-7045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>990917-1234567</t>
+          <t>851018-2234567</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>744-844-900044</t>
+          <t>745-845-900045</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3900,17 +3975,17 @@
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>010-9144-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M47" s="3" t="inlineStr">
@@ -3931,7 +4006,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
@@ -3940,52 +4015,52 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>oct046</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권5</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>010-7046-0046</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>851018-2234567</t>
+          <t>861119-1234567</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>745-845-900045</t>
+          <t>746-846-900046</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>송가인4</t>
+          <t>류현진4</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>010-9145-0046</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M48" s="3" t="inlineStr">
@@ -4006,7 +4081,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
@@ -4015,32 +4090,32 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>oct047</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우5</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>010-7047-0047</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>861119-1234567</t>
+          <t>871220-2234567</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>746-846-900046</t>
+          <t>747-847-900047</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -4050,17 +4125,17 @@
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>010-9146-0047</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M49" s="3" t="inlineStr">
@@ -4081,7 +4156,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
@@ -4090,52 +4165,52 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>oct048</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규5</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>010-7048-0048</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>871220-2234567</t>
+          <t>880121-1234567</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>747-847-900047</t>
+          <t>748-848-900048</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>류현진4</t>
+          <t>안정환4</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>010-9147-0048</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M50" s="3" t="inlineStr">
@@ -4156,7 +4231,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
@@ -4165,32 +4240,32 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>oct049</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철5</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>010-7049-0049</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>880121-1234567</t>
+          <t>890222-2234567</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>748-848-900048</t>
+          <t>749-849-900049</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -4200,17 +4275,17 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>010-9148-0049</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M51" s="3" t="inlineStr">
@@ -4231,7 +4306,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
@@ -4240,52 +4315,52 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>oct050</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재6</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>010-7050-0050</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>890222-2234567</t>
+          <t>900323-1234567</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>749-849-900049</t>
+          <t>750-850-900050</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>안정환4</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>010-9149-0050</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M52" s="3" t="inlineStr">
@@ -4306,7 +4381,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
@@ -4315,32 +4390,32 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>oct051</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인6</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>010-7051-0051</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>900323-1234567</t>
+          <t>910424-2234567</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>750-850-900050</t>
+          <t>751-851-900051</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -4350,17 +4425,17 @@
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>010-9150-0051</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M53" s="3" t="inlineStr">
@@ -4381,7 +4456,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
@@ -4390,52 +4465,52 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>oct052</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민6</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>010-7052-0052</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>910424-2234567</t>
+          <t>920525-1234567</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>751-851-900051</t>
+          <t>752-852-900052</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>배용준4</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>010-9151-0052</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M54" s="3" t="inlineStr">
@@ -4456,7 +4531,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
@@ -4465,32 +4540,32 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>oct053</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬6</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>010-7053-0053</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>920525-1234567</t>
+          <t>930626-2234567</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>752-852-900052</t>
+          <t>753-853-900053</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -4500,17 +4575,17 @@
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>010-9152-0053</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M55" s="3" t="inlineStr">
@@ -4531,7 +4606,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
@@ -4540,52 +4615,52 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>oct054</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성6</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>010-7054-0054</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>930626-2234567</t>
+          <t>940727-1234567</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>753-853-900053</t>
+          <t>754-854-900054</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>전지현4</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>010-9153-0054</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M56" s="3" t="inlineStr">
@@ -4606,7 +4681,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
@@ -4615,32 +4690,32 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>oct055</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범6</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>010-7055-0055</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>940727-1234567</t>
+          <t>950828-2234567</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>754-854-900054</t>
+          <t>755-855-900055</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -4650,17 +4725,17 @@
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>010-9154-0055</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M57" s="3" t="inlineStr">
@@ -4681,7 +4756,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
@@ -4690,52 +4765,52 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>oct056</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권6</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>010-7056-0056</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>950828-2234567</t>
+          <t>960901-1234567</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>755-855-900055</t>
+          <t>756-856-900056</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>고소영4</t>
+          <t>최민수5</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>010-9155-0056</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M58" s="3" t="inlineStr">
@@ -4756,7 +4831,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
@@ -4765,32 +4840,32 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>oct057</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우6</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>010-7057-0057</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>960901-1234567</t>
+          <t>971002-2234567</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>756-856-900056</t>
+          <t>757-857-900057</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -4800,17 +4875,17 @@
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>010-9156-0057</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M59" s="3" t="inlineStr">
@@ -4831,7 +4906,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
@@ -4840,52 +4915,52 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>oct058</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규6</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>010-7058-0058</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>971002-2234567</t>
+          <t>981103-1234567</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>757-857-900057</t>
+          <t>758-858-900058</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>최민수5</t>
+          <t>송가인5</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>010-9157-0058</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M60" s="3" t="inlineStr">
@@ -4906,7 +4981,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
@@ -4915,32 +4990,32 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>oct059</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철6</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>010-7059-0059</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>981103-1234567</t>
+          <t>991204-2234567</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>758-858-900058</t>
+          <t>759-859-900059</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -4950,17 +5025,17 @@
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>010-9158-0059</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M61" s="3" t="inlineStr">
@@ -4981,7 +5056,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
@@ -4990,52 +5065,52 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>oct060</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재7</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>010-7060-0060</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>991204-2234567</t>
+          <t>850105-1234567</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>759-859-900059</t>
+          <t>760-860-900060</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>송가인5</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>010-9159-0060</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M62" s="3" t="inlineStr">
@@ -5056,7 +5131,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
@@ -5065,32 +5140,32 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>oct061</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인7</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>010-7061-0061</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>850105-1234567</t>
+          <t>860206-2234567</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>760-860-900060</t>
+          <t>761-861-900061</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -5100,17 +5175,17 @@
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>010-9160-0061</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M63" s="3" t="inlineStr">
@@ -5131,7 +5206,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
@@ -5140,52 +5215,52 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>oct062</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민7</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>010-7062-0062</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>860206-2234567</t>
+          <t>870307-1234567</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>761-861-900061</t>
+          <t>762-862-900062</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>류현진5</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>010-9161-0062</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M64" s="3" t="inlineStr">
@@ -5206,7 +5281,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
@@ -5215,32 +5290,32 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>oct063</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬7</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>010-7063-0063</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>870307-1234567</t>
+          <t>880408-2234567</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>762-862-900062</t>
+          <t>763-863-900063</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -5250,17 +5325,17 @@
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>010-9162-0063</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M65" s="3" t="inlineStr">
@@ -5281,7 +5356,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
@@ -5290,52 +5365,52 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>oct064</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성7</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>010-7064-0064</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>880408-2234567</t>
+          <t>890509-1234567</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>763-863-900063</t>
+          <t>764-864-900064</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>안정환5</t>
+          <t>배용준5</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>010-9163-0064</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M66" s="3" t="inlineStr">
@@ -5356,7 +5431,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
@@ -5365,32 +5440,32 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>oct065</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범7</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>010-7065-0065</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>890509-1234567</t>
+          <t>900610-2234567</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>764-864-900064</t>
+          <t>765-865-900065</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -5400,17 +5475,17 @@
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>010-9164-0065</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M67" s="3" t="inlineStr">
@@ -5431,7 +5506,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
@@ -5440,52 +5515,52 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>oct066</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권7</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>010-7066-0066</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>900610-2234567</t>
+          <t>910711-1234567</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>765-865-900065</t>
+          <t>766-866-900066</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>배용준5</t>
+          <t>전지현5</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>010-9165-0066</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M68" s="3" t="inlineStr">
@@ -5506,7 +5581,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
@@ -5515,32 +5590,32 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>oct067</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우7</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>010-7067-0067</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>910711-1234567</t>
+          <t>920812-2234567</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>766-866-900066</t>
+          <t>767-867-900067</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -5550,17 +5625,17 @@
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>010-9166-0067</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M69" s="3" t="inlineStr">
@@ -5581,7 +5656,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
@@ -5590,52 +5665,52 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>oct068</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규7</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>010-7068-0068</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>920812-2234567</t>
+          <t>930913-1234567</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>767-867-900067</t>
+          <t>768-868-900068</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>전지현5</t>
+          <t>고소영5</t>
         </is>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>010-9167-0068</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
@@ -5656,7 +5731,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
@@ -5665,32 +5740,32 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>oct069</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철7</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>010-7069-0069</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>930913-1234567</t>
+          <t>941014-2234567</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>768-868-900068</t>
+          <t>769-869-900069</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -5700,17 +5775,17 @@
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>010-9168-0069</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M71" s="3" t="inlineStr">
@@ -5731,7 +5806,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
@@ -5740,52 +5815,52 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>oct070</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재8</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>010-7070-0070</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>941014-2234567</t>
+          <t>951115-1234567</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>769-869-900069</t>
+          <t>770-870-900070</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>고소영5</t>
+          <t>최민수6</t>
         </is>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>010-9169-0070</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M72" s="3" t="inlineStr">
@@ -5806,7 +5881,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
@@ -5815,32 +5890,32 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>oct071</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인8</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>010-7071-0071</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>951115-1234567</t>
+          <t>961216-2234567</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>770-870-900070</t>
+          <t>771-871-900071</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -5850,17 +5925,17 @@
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>010-9170-0071</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M73" s="3" t="inlineStr">
@@ -5881,7 +5956,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
@@ -5890,52 +5965,52 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>oct072</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민8</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>010-7072-0072</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>961216-2234567</t>
+          <t>970117-1234567</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>771-871-900071</t>
+          <t>772-872-900072</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>최민수6</t>
+          <t>송가인6</t>
         </is>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>010-9171-0072</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M74" s="3" t="inlineStr">
@@ -5956,7 +6031,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
@@ -5965,32 +6040,32 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>oct073</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬8</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>010-7073-0073</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>970117-1234567</t>
+          <t>980218-2234567</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>772-872-900072</t>
+          <t>773-873-900073</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -6000,17 +6075,17 @@
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>010-9172-0073</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M75" s="3" t="inlineStr">
@@ -6031,7 +6106,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
@@ -6040,52 +6115,52 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>oct074</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성8</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>010-7074-0074</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>980218-2234567</t>
+          <t>990319-1234567</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>773-873-900073</t>
+          <t>774-874-900074</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>송가인6</t>
+          <t>류현진6</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>010-9173-0074</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M76" s="3" t="inlineStr">
@@ -6106,7 +6181,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
@@ -6115,32 +6190,32 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>oct075</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범8</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>010-7075-0075</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>990319-1234567</t>
+          <t>850420-2234567</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>774-874-900074</t>
+          <t>775-875-900075</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -6150,17 +6225,17 @@
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>010-9174-0075</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M77" s="3" t="inlineStr">
@@ -6181,7 +6256,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
@@ -6190,52 +6265,52 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>oct076</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권8</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>010-7076-0076</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>850420-2234567</t>
+          <t>860521-1234567</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>775-875-900075</t>
+          <t>776-876-900076</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>류현진6</t>
+          <t>안정환6</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>010-9175-0076</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M78" s="3" t="inlineStr">
@@ -6256,7 +6331,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
@@ -6265,32 +6340,32 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>oct077</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우8</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>010-7077-0077</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>860521-1234567</t>
+          <t>870622-2234567</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>776-876-900076</t>
+          <t>777-877-900077</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
@@ -6300,17 +6375,17 @@
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>010-9176-0077</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M79" s="3" t="inlineStr">
@@ -6331,7 +6406,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
@@ -6340,52 +6415,52 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>oct078</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규8</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>010-7078-0078</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>870622-2234567</t>
+          <t>880723-1234567</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>777-877-900077</t>
+          <t>778-878-900078</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>안정환6</t>
+          <t>배용준6</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>010-9177-0078</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M80" s="3" t="inlineStr">
@@ -6406,7 +6481,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
@@ -6415,32 +6490,32 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>oct079</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철8</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>010-7079-0079</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>880723-1234567</t>
+          <t>890824-2234567</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>778-878-900078</t>
+          <t>779-879-900079</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -6450,17 +6525,17 @@
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>010-9178-0079</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M81" s="3" t="inlineStr">
@@ -6481,7 +6556,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
@@ -6490,52 +6565,52 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>oct080</t>
+          <t>김민재</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>홍철</t>
+          <t>김민재9</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>010-7080-0080</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>890824-2234567</t>
+          <t>900925-1234567</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>779-879-900079</t>
+          <t>780-880-900080</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>배용준6</t>
+          <t>전지현6</t>
         </is>
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
-          <t>홍설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>010-9179-0080</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M82" s="3" t="inlineStr">
@@ -6556,7 +6631,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
@@ -6565,32 +6640,32 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>oct081</t>
+          <t>이강인</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>김민재</t>
+          <t>이강인9</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>010-7081-0081</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>900925-1234567</t>
+          <t>911026-2234567</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>780-880-900080</t>
+          <t>781-881-900081</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -6600,17 +6675,17 @@
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>010-9180-0081</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M83" s="3" t="inlineStr">
@@ -6631,7 +6706,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
@@ -6640,52 +6715,52 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>oct082</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>이강인</t>
+          <t>손흥민9</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>010-7082-0082</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>911026-2234567</t>
+          <t>921127-1234567</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>781-881-900081</t>
+          <t>782-882-900082</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>전지현6</t>
+          <t>고소영6</t>
         </is>
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>손설계</t>
         </is>
       </c>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>010-9181-0082</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M84" s="3" t="inlineStr">
@@ -6706,7 +6781,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
@@ -6715,32 +6790,32 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>oct083</t>
+          <t>황희찬</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>황희찬9</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>010-7083-0083</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>921127-1234567</t>
+          <t>931228-2234567</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>782-882-900082</t>
+          <t>783-883-900083</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -6750,17 +6825,17 @@
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
-          <t>손설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>010-9182-0083</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M85" s="3" t="inlineStr">
@@ -6781,7 +6856,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
@@ -6790,52 +6865,52 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>oct084</t>
+          <t>이재성</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>이재성9</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>010-7084-0084</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>931228-2234567</t>
+          <t>940101-1234567</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>국민은행</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>783-883-900083</t>
+          <t>784-884-900084</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>고소영6</t>
+          <t>최민수7</t>
         </is>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K86" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>010-9183-0084</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M86" s="3" t="inlineStr">
@@ -6856,7 +6931,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
@@ -6865,32 +6940,32 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>oct085</t>
+          <t>황인범</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>이재성</t>
+          <t>황인범9</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>010-7085-0085</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>940101-1234567</t>
+          <t>950202-2234567</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>784-884-900084</t>
+          <t>785-885-900085</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -6900,17 +6975,17 @@
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>황설계</t>
         </is>
       </c>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>010-9184-0085</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M87" s="3" t="inlineStr">
@@ -6931,7 +7006,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
@@ -6940,52 +7015,52 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>oct086</t>
+          <t>김영권</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>황인범</t>
+          <t>김영권9</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>010-7086-0086</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>950202-2234567</t>
+          <t>960303-1234567</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>785-885-900085</t>
+          <t>786-886-900086</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>최민수7</t>
+          <t>송가인7</t>
         </is>
       </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
         <is>
-          <t>황설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>010-9185-0086</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M88" s="3" t="inlineStr">
@@ -7006,7 +7081,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
@@ -7015,32 +7090,32 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>oct087</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>김영권</t>
+          <t>조현우9</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>010-7087-0087</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>960303-1234567</t>
+          <t>970404-2234567</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>786-886-900086</t>
+          <t>787-887-900087</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -7050,17 +7125,17 @@
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>조설계</t>
         </is>
       </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>010-9186-0087</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M89" s="3" t="inlineStr">
@@ -7081,7 +7156,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
@@ -7090,52 +7165,52 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>oct088</t>
+          <t>김승규</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>김승규9</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>010-7088-0088</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>970404-2234567</t>
+          <t>980505-1234567</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>787-887-900087</t>
+          <t>788-888-900088</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>송가인7</t>
+          <t>류현진7</t>
         </is>
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
         <is>
-          <t>조설계</t>
+          <t>김설계</t>
         </is>
       </c>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>010-9187-0088</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M90" s="3" t="inlineStr">
@@ -7156,7 +7231,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
@@ -7165,32 +7240,32 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>oct089</t>
+          <t>홍철</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>김승규</t>
+          <t>홍철9</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>010-7089-0089</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>980505-1234567</t>
+          <t>990606-2234567</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>788-888-900088</t>
+          <t>789-889-900089</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -7200,17 +7275,17 @@
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>010-6045-0045</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>홍설계</t>
         </is>
       </c>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>010-9188-0089</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M91" s="3" t="inlineStr">
@@ -7226,81 +7301,6 @@
       <c r="O91" s="2" t="inlineStr">
         <is>
           <t>종로지점</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>oct090</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>홍철</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>010-7090-0090</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>990606-2234567</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>농협은행</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>789-889-900089</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>류현진7</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>010-6045-0045</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>홍설계</t>
-        </is>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>010-9189-0090</t>
-        </is>
-      </c>
-      <c r="M92" s="3" t="inlineStr">
-        <is>
-          <t>삼성화재 실손보험</t>
-        </is>
-      </c>
-      <c r="N92" s="2" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="O92" s="2" t="inlineStr">
-        <is>
-          <t>강남지점</t>
         </is>
       </c>
     </row>

--- a/test-data/10월_용역자명단_간단.xlsx
+++ b/test-data/10월_용역자명단_간단.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="19.2" customWidth="1" min="6" max="6"/>
@@ -446,9 +446,9 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="7.199999999999999" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="8.4" customWidth="1" min="13" max="13"/>
-    <col width="7.199999999999999" customWidth="1" min="14" max="14"/>
-    <col width="10.8" customWidth="1" min="15" max="15"/>
+    <col width="22.8" customWidth="1" min="13" max="13"/>
+    <col width="9.6" customWidth="1" min="14" max="14"/>
+    <col width="7.199999999999999" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -569,7 +569,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>김하늘2</t>
+          <t>한지민3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -587,11 +587,19 @@
           <t>010-8749-8727</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -636,7 +644,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>최민수</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -654,11 +662,19 @@
           <t>010-8772-8756</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -673,14 +689,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>정우성</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>정우성2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>정우성2</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>010-2155-3145</t>
@@ -703,7 +719,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>전지현</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -721,11 +737,19 @@
           <t>010-8795-8785</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -740,14 +764,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>정우성</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>정우성3</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>정우성3</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>010-2162-3158</t>
@@ -770,7 +794,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>류현진3</t>
+          <t>김하늘2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,11 +812,19 @@
           <t>010-8818-8814</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -807,14 +839,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>정우성</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>정우성4</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>정우성4</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>010-2169-3171</t>
@@ -837,7 +869,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>한지민2</t>
+          <t>정우성3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,11 +887,19 @@
           <t>010-8841-8843</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -874,14 +914,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>정우성</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>정우성5</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>정우성5</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>010-2176-3184</t>
@@ -904,7 +944,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>한지민</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -922,11 +962,19 @@
           <t>010-8864-8872</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -971,7 +1019,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>한지민4</t>
+          <t>김태희</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -989,11 +1037,19 @@
           <t>010-8887-8901</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1064,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>손예진</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>손예진2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>손예진2</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>010-2190-3210</t>
@@ -1038,7 +1094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>한지민3</t>
+          <t>정우성</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1056,11 +1112,19 @@
           <t>010-8910-8930</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1169,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>손예진</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1123,11 +1187,19 @@
           <t>010-8933-8959</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -1142,14 +1214,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>현빈</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>현빈2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>현빈2</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>010-2204-3236</t>
@@ -1172,7 +1244,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>류현진4</t>
+          <t>현빈</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1190,11 +1262,19 @@
           <t>010-8956-8988</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -1209,14 +1289,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>현빈</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>현빈3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>현빈3</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>010-2211-3249</t>
@@ -1239,7 +1319,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>송가인5</t>
+          <t>윤서준4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1257,11 +1337,19 @@
           <t>010-8979-9017</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -1276,14 +1364,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>현빈</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>현빈4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>현빈4</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>010-2218-3262</t>
@@ -1306,7 +1394,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>한지민</t>
+          <t>한지민2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1324,11 +1412,19 @@
           <t>010-9002-9046</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1469,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>김하늘3</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1391,11 +1487,19 @@
           <t>010-9025-9075</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1544,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>정우성</t>
+          <t>류현진4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1458,11 +1562,19 @@
           <t>010-9048-9104</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -1477,14 +1589,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>송혜교</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>송혜교2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>송혜교2</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>010-2239-3301</t>
@@ -1507,7 +1619,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>윤서준2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1525,11 +1637,19 @@
           <t>010-9071-9133</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1664,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>송혜교</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>송혜교3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>송혜교3</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>010-2246-3314</t>
@@ -1574,7 +1694,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>현빈4</t>
+          <t>한지민</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1592,11 +1712,19 @@
           <t>010-9094-9162</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1769,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>정우성5</t>
+          <t>이병헌</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1659,11 +1787,19 @@
           <t>010-9117-9191</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1814,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>강동원</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>강동원2</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>강동원2</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>010-2260-3340</t>
@@ -1708,7 +1844,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>전지현2</t>
+          <t>정우성2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1726,11 +1862,19 @@
           <t>010-9140-9220</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -1745,14 +1889,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>강동원</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>강동원3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>강동원3</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>010-2267-3353</t>
@@ -1775,7 +1919,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>현빈3</t>
+          <t>고소영4</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1793,11 +1937,19 @@
           <t>010-9163-9249</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -1812,14 +1964,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>강동원</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>강동원4</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>강동원4</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>010-2274-3366</t>
@@ -1842,7 +1994,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>송혜교2</t>
+          <t>강동원2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1860,11 +2012,19 @@
           <t>010-9186-9278</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -1879,14 +2039,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>강동원</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>강동원5</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>강동원5</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>010-2281-3379</t>
@@ -1909,7 +2069,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>최민수</t>
+          <t>정우성4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1927,11 +2087,19 @@
           <t>010-9209-9307</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -1946,14 +2114,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>강동원</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>강동원6</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>강동원6</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>010-2288-3392</t>
@@ -1976,7 +2144,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>이병헌</t>
+          <t>김하늘</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1994,11 +2162,19 @@
           <t>010-9232-9336</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2219,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>송혜교</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2061,11 +2237,19 @@
           <t>010-9255-9365</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -2080,14 +2264,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>전도연</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>전도연2</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>전도연2</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>010-2302-3418</t>
@@ -2110,7 +2294,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>고소영</t>
+          <t>고소영2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2128,11 +2312,19 @@
           <t>010-9278-9394</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2369,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>강동원4</t>
+          <t>한지민4</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2195,11 +2387,19 @@
           <t>010-9301-9423</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2414,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>하정우</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>하정우2</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>하정우2</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>010-2316-3444</t>
@@ -2244,7 +2444,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>송혜교3</t>
+          <t>손예진2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2262,11 +2462,19 @@
           <t>010-9324-9452</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -2281,14 +2489,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>하정우</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>하정우3</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>하정우3</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>010-2323-3457</t>
@@ -2311,7 +2519,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>김태희</t>
+          <t>송혜교3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2329,11 +2537,19 @@
           <t>010-9347-9481</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -2348,14 +2564,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>하정우</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>하정우4</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>하정우4</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>010-2330-3470</t>
@@ -2378,7 +2594,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>안정환4</t>
+          <t>배용준4</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2396,11 +2612,19 @@
           <t>010-9370-9510</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2669,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>이나영</t>
+          <t>하정우2</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2463,11 +2687,19 @@
           <t>010-9393-9539</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2744,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>강동원</t>
+          <t>현빈4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2530,11 +2762,19 @@
           <t>010-9416-9568</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2789,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>조인성</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>조인성2</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>조인성2</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>010-2351-3509</t>
@@ -2579,7 +2819,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>강동원3</t>
+          <t>정우성5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2597,11 +2837,19 @@
           <t>010-9439-9597</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -2616,14 +2864,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>조인성</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>조인성3</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>조인성3</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>010-2358-3522</t>
@@ -2646,7 +2894,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>이나영</t>
+          <t>안정환5</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2664,11 +2912,19 @@
           <t>010-9462-9626</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2969,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>정우성4</t>
+          <t>하정우</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2731,11 +2987,19 @@
           <t>010-9485-9655</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -2750,14 +3014,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>송강호</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>송강호2</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>송강호2</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>010-2372-3548</t>
@@ -2780,7 +3044,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>하정우3</t>
+          <t>김혜수</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2798,11 +3062,19 @@
           <t>010-9508-9684</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -2817,14 +3089,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>송강호</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>송강호3</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>송강호3</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>010-2379-3561</t>
@@ -2847,7 +3119,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>이나영2</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2865,11 +3137,19 @@
           <t>010-9531-9713</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -2884,14 +3164,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>송강호</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>송강호4</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>송강호4</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>010-2386-3574</t>
@@ -2914,7 +3194,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>정우성3</t>
+          <t>송혜교2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2932,11 +3212,19 @@
           <t>010-9554-9742</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -2951,14 +3239,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>송강호</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>송강호5</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>송강호5</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>010-2393-3587</t>
@@ -2981,7 +3269,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>전도연2</t>
+          <t>배용준</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2999,11 +3287,19 @@
           <t>010-9577-9771</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3344,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>최민수6</t>
+          <t>전도연</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3066,11 +3362,19 @@
           <t>010-9600-9800</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -3085,14 +3389,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>이정재</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>이정재2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>이정재2</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>010-2407-3613</t>
@@ -3115,7 +3419,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>하정우4</t>
+          <t>김하늘4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3133,11 +3437,19 @@
           <t>010-9623-9829</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3494,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>전도연</t>
+          <t>송강호5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3200,11 +3512,19 @@
           <t>010-9646-9858</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3569,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>최민수5</t>
+          <t>하정우3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3267,11 +3587,19 @@
           <t>010-9669-9887</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -3286,14 +3614,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>김수현2</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>김수현2</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>010-2428-3652</t>
@@ -3316,7 +3644,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>김수현</t>
+          <t>최민수4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3334,11 +3662,19 @@
           <t>010-9692-9916</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -3353,14 +3689,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>김수현3</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>김수현3</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>010-2435-3665</t>
@@ -3383,7 +3719,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>강동원2</t>
+          <t>전지현2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3401,11 +3737,19 @@
           <t>010-9715-9945</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -3420,14 +3764,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>김수현4</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>김수현4</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>010-2442-3678</t>
@@ -3450,7 +3794,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>김하늘4</t>
+          <t>하정우4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3468,11 +3812,19 @@
           <t>010-9738-9974</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -3487,14 +3839,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>김수현5</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>김수현5</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>010-2449-3691</t>
@@ -3517,7 +3869,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>류현진5</t>
+          <t>배용준2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3535,11 +3887,19 @@
           <t>010-9761-4003</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -3554,14 +3914,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>김수현6</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>김수현6</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>010-2456-3704</t>
@@ -3584,7 +3944,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>현빈</t>
+          <t>강동원3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3602,11 +3962,19 @@
           <t>010-9784-4032</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -3621,14 +3989,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>김수현</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>김수현7</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>김수현7</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>010-2463-3717</t>
@@ -3651,7 +4019,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>송강호</t>
+          <t>이나영2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3669,11 +4037,19 @@
           <t>010-9807-4061</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -3718,7 +4094,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>송강호5</t>
+          <t>강동원</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3736,11 +4112,19 @@
           <t>010-9830-4090</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -3755,14 +4139,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>박서준</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>박서준2</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>박서준2</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>010-2477-3743</t>
@@ -3785,7 +4169,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>송강호2</t>
+          <t>조인성3</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3803,11 +4187,19 @@
           <t>010-9853-4119</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -3822,14 +4214,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>박서준</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>박서준3</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>박서준3</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>010-2484-3756</t>
@@ -3852,7 +4244,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>송강호5</t>
+          <t>안정환</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3870,11 +4262,19 @@
           <t>010-9876-4148</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -3919,7 +4319,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>조인성2</t>
+          <t>김수현3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3937,11 +4337,19 @@
           <t>010-9899-4177</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -3956,14 +4364,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>이민호</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>이민호2</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>이민호2</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>010-2498-3782</t>
@@ -3986,7 +4394,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>이나영4</t>
+          <t>송강호3</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4004,11 +4412,19 @@
           <t>010-9922-4206</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4469,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>하정우</t>
+          <t>김수현5</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4071,11 +4487,19 @@
           <t>010-9945-4235</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -4090,14 +4514,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>김지원2</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>김지원2</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>010-2512-3808</t>
@@ -4120,7 +4544,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>송혜교</t>
+          <t>류현진5</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4138,11 +4562,19 @@
           <t>010-9968-4264</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -4157,14 +4589,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>김지원3</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>김지원3</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>010-2519-3821</t>
@@ -4187,7 +4619,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>김수현3</t>
+          <t>김수현2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4205,11 +4637,19 @@
           <t>010-9991-4293</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -4224,14 +4664,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>김지원</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>김지원4</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>김지원4</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>010-2526-3834</t>
@@ -4254,7 +4694,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>이정재</t>
+          <t>박서준3</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4272,11 +4712,19 @@
           <t>010-5014-4322</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4769,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>이민호</t>
+          <t>강동원5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4339,11 +4787,19 @@
           <t>010-5037-4351</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4844,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>송혜교3</t>
+          <t>김지원4</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4406,11 +4862,19 @@
           <t>010-5060-4380</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -4425,14 +4889,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>한효주</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>한효주2</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>한효주2</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>010-2547-3873</t>
@@ -4455,7 +4919,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>박서준2</t>
+          <t>김수현7</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4473,11 +4937,19 @@
           <t>010-5083-4409</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -4492,14 +4964,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>한효주</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>한효주3</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>한효주3</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>010-2554-3886</t>
@@ -4522,7 +4994,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>김지원3</t>
+          <t>강동원3</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4540,11 +5012,19 @@
           <t>010-5106-4438</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -4559,14 +5039,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>한효주</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>한효주4</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>한효주4</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>010-2561-3899</t>
@@ -4589,7 +5069,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>한효주3</t>
+          <t>전도연2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4607,11 +5087,19 @@
           <t>010-5129-4467</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -4626,14 +5114,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>한효주</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>한효주5</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>한효주5</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>010-2568-3912</t>
@@ -4656,7 +5144,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>김지원4</t>
+          <t>한효주3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4674,11 +5162,19 @@
           <t>010-5152-4496</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -4723,7 +5219,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>류현진</t>
+          <t>한효주4</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4741,11 +5237,19 @@
           <t>010-5175-4525</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -4760,14 +5264,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>수지</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>수지2</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>수지2</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>010-2582-3938</t>
@@ -4790,7 +5294,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>강동원6</t>
+          <t>정우성3</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4808,11 +5312,19 @@
           <t>010-5198-4554</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -4857,7 +5369,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>송강호4</t>
+          <t>박서준</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4875,11 +5387,19 @@
           <t>010-5221-4583</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -4894,14 +5414,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>아이유2</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>아이유2</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>010-2596-3964</t>
@@ -4924,7 +5444,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>수지</t>
+          <t>송혜교</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4942,11 +5462,19 @@
           <t>010-5244-4612</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -4961,14 +5489,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>아이유3</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>아이유3</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>010-2603-3977</t>
@@ -4991,7 +5519,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>한효주4</t>
+          <t>김혜수</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5009,11 +5537,19 @@
           <t>010-5267-4641</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5594,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>전지현3</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5076,11 +5612,19 @@
           <t>010-5290-4670</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -5095,14 +5639,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>김고은</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>김고은2</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>김고은2</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>010-2617-4003</t>
@@ -5125,7 +5669,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>김수현7</t>
+          <t>강동원4</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5143,11 +5687,19 @@
           <t>010-5313-4699</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -5162,14 +5714,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>김고은</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>김고은3</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>김고은3</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>010-2624-4016</t>
@@ -5192,7 +5744,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>박보영</t>
+          <t>강동원6</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5210,11 +5762,19 @@
           <t>010-5336-4728</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -5229,14 +5789,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>김고은</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>김고은4</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>김고은4</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>010-2631-4029</t>
@@ -5259,7 +5819,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>강동원3</t>
+          <t>강동원2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5277,11 +5837,19 @@
           <t>010-5359-4757</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5894,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>아이유3</t>
+          <t>송강호4</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5344,11 +5912,19 @@
           <t>010-5382-4786</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5969,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>공유</t>
+          <t>현빈2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5411,11 +5987,19 @@
           <t>010-5405-4815</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -5430,14 +6014,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>전소민</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>전소민2</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>전소민2</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>010-2652-4068</t>
@@ -5460,7 +6044,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>강동원5</t>
+          <t>김지원3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5478,11 +6062,19 @@
           <t>010-5428-4844</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -5497,14 +6089,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>전소민</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>전소민3</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>전소민3</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>010-2659-4081</t>
@@ -5527,7 +6119,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>김수현6</t>
+          <t>박신혜</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5545,11 +6137,19 @@
           <t>010-5451-4873</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -5564,14 +6164,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>전소민</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>전소민4</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>전소민4</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>010-2666-4094</t>
@@ -5594,7 +6194,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>김하늘2</t>
+          <t>전지현3</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5612,11 +6212,19 @@
           <t>010-5474-4902</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -5631,14 +6239,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>전소민</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>전소민5</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>전소민5</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>010-2673-4107</t>
@@ -5661,7 +6269,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>김수현2</t>
+          <t>박보영</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5679,11 +6287,19 @@
           <t>010-5497-4931</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -5698,14 +6314,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>전소민</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>전소민6</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>전소민6</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>010-2680-4120</t>
@@ -5728,7 +6344,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>전소민</t>
+          <t>이민호2</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5746,11 +6362,19 @@
           <t>010-5520-4960</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -5795,7 +6419,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>김수현5</t>
+          <t>수지</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5813,11 +6437,19 @@
           <t>010-5543-4989</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -5832,14 +6464,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>김다미</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>김다미2</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>김다미2</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>010-2694-4146</t>
@@ -5862,7 +6494,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>김수현6</t>
+          <t>전지현4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5880,11 +6512,19 @@
           <t>010-5566-5018</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -5929,7 +6569,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>김고은3</t>
+          <t>한효주</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5947,11 +6587,19 @@
           <t>010-5589-5047</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -5966,14 +6614,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>이성경</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>이성경2</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>이성경2</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>010-2708-4172</t>
@@ -5996,7 +6644,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>송가인</t>
+          <t>김지원2</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6014,11 +6662,19 @@
           <t>010-5612-5076</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -6033,14 +6689,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>이성경</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>이성경3</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>이성경3</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>010-2715-4185</t>
@@ -6063,7 +6719,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>이민호2</t>
+          <t>아이유2</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6081,11 +6737,19 @@
           <t>010-5635-5105</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6794,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>조인성3</t>
+          <t>김수현7</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6148,11 +6812,19 @@
           <t>010-5658-5134</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -6167,14 +6839,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>한소희</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>한소희2</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>한소희2</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>010-2729-4211</t>
@@ -6197,7 +6869,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>한효주</t>
+          <t>김고은2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6215,11 +6887,19 @@
           <t>010-5681-5163</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -6234,14 +6914,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>한소희</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>한소희3</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>한소희3</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>010-2736-4224</t>
@@ -6264,7 +6944,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>최민수4</t>
+          <t>전소민6</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6282,11 +6962,19 @@
           <t>010-5704-5192</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -6301,14 +6989,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>한소희</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>한소희4</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>한소희4</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>010-2743-4237</t>
@@ -6331,7 +7019,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>김수현4</t>
+          <t>수지2</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6349,11 +7037,19 @@
           <t>010-5727-5221</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -6398,7 +7094,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>이성경2</t>
+          <t>김수현4</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6416,11 +7112,19 @@
           <t>010-5750-5250</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -6465,7 +7169,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>이나영3</t>
+          <t>강동원6</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6483,11 +7187,19 @@
           <t>010-5773-5279</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -6502,14 +7214,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>김세정</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>김세정2</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>김세정2</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>010-2764-4276</t>
@@ -6532,7 +7244,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>김지원2</t>
+          <t>김다미</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6550,11 +7262,19 @@
           <t>010-5796-5308</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -6569,14 +7289,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>김세정</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>김세정3</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>김세정3</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>010-2771-4289</t>
@@ -6599,7 +7319,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>김지원</t>
+          <t>전소민3</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6617,11 +7337,19 @@
           <t>010-5819-5337</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -6636,14 +7364,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>김세정</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>김세정4</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>김세정4</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>010-2778-4302</t>
@@ -6666,7 +7394,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>손예진2</t>
+          <t>한소희</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6684,11 +7412,19 @@
           <t>010-5842-5366</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -6703,14 +7439,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>김세정</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>김세정5</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>김세정5</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>010-2785-4315</t>
@@ -6733,7 +7469,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>하정우4</t>
+          <t>김하늘2</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6751,11 +7487,19 @@
           <t>010-5865-5395</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
